--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Gpr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H2">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I2">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J2">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.720566666666667</v>
+        <v>1.576048333333333</v>
       </c>
       <c r="N2">
-        <v>5.1617</v>
+        <v>4.728145</v>
       </c>
       <c r="O2">
-        <v>0.3808042548680229</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="P2">
-        <v>0.3808042548680228</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="Q2">
-        <v>0.4348101375555555</v>
+        <v>1.113046835606111</v>
       </c>
       <c r="R2">
-        <v>3.913291237999999</v>
+        <v>10.017421520455</v>
       </c>
       <c r="S2">
-        <v>0.004451088032276842</v>
+        <v>0.01351750340455047</v>
       </c>
       <c r="T2">
-        <v>0.004451088032276841</v>
+        <v>0.01351750340455047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H3">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I3">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J3">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.894233</v>
       </c>
       <c r="O3">
-        <v>0.3610718853702246</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="P3">
-        <v>0.3610718853702246</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="Q3">
-        <v>0.4122793118466666</v>
+        <v>1.152145408689667</v>
       </c>
       <c r="R3">
-        <v>3.710513806619999</v>
+        <v>10.369308678207</v>
       </c>
       <c r="S3">
-        <v>0.00422044325192754</v>
+        <v>0.01399233975272824</v>
       </c>
       <c r="T3">
-        <v>0.00422044325192754</v>
+        <v>0.01399233975272824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H4">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I4">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J4">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.406112</v>
+        <v>0.5138943333333333</v>
       </c>
       <c r="N4">
-        <v>1.218336</v>
+        <v>1.541683</v>
       </c>
       <c r="O4">
-        <v>0.0898827000133459</v>
+        <v>0.1291618870293125</v>
       </c>
       <c r="P4">
-        <v>0.08988270001334588</v>
+        <v>0.1291618870293125</v>
       </c>
       <c r="Q4">
-        <v>0.1026299172266666</v>
+        <v>0.3629257107507778</v>
       </c>
       <c r="R4">
-        <v>0.9236692550399999</v>
+        <v>3.266331396756999</v>
       </c>
       <c r="S4">
-        <v>0.001050607510876657</v>
+        <v>0.00440758589282638</v>
       </c>
       <c r="T4">
-        <v>0.001050607510876656</v>
+        <v>0.004407585892826379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2527133333333333</v>
+        <v>0.7062263333333333</v>
       </c>
       <c r="H5">
-        <v>0.7581399999999999</v>
+        <v>2.118679</v>
       </c>
       <c r="I5">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304152</v>
       </c>
       <c r="J5">
-        <v>0.01168865099424762</v>
+        <v>0.03412450835304151</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.445732</v>
+        <v>0.2573303333333333</v>
       </c>
       <c r="N5">
-        <v>1.337196</v>
+        <v>0.771991</v>
       </c>
       <c r="O5">
-        <v>0.09865159276837104</v>
+        <v>0.06467724839000366</v>
       </c>
       <c r="P5">
-        <v>0.09865159276837102</v>
+        <v>0.06467724839000366</v>
       </c>
       <c r="Q5">
-        <v>0.1126424194933333</v>
+        <v>0.1817334577654444</v>
       </c>
       <c r="R5">
-        <v>1.01378177544</v>
+        <v>1.635601119889</v>
       </c>
       <c r="S5">
-        <v>0.001153104037896132</v>
+        <v>0.002207079302936421</v>
       </c>
       <c r="T5">
-        <v>0.001153104037896132</v>
+        <v>0.002207079302936421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2527133333333333</v>
+        <v>18.279338</v>
       </c>
       <c r="H6">
-        <v>0.7581399999999999</v>
+        <v>54.838014</v>
       </c>
       <c r="I6">
-        <v>0.01168865099424762</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J6">
-        <v>0.01168865099424762</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3144226666666667</v>
+        <v>1.576048333333333</v>
       </c>
       <c r="N6">
-        <v>0.943268</v>
+        <v>4.728145</v>
       </c>
       <c r="O6">
-        <v>0.0695895669800357</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="P6">
-        <v>0.06958956698003568</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="Q6">
-        <v>0.07945880016888889</v>
+        <v>28.80912018933666</v>
       </c>
       <c r="R6">
-        <v>0.7151292015199999</v>
+        <v>259.28208170403</v>
       </c>
       <c r="S6">
-        <v>0.0008134081612704558</v>
+        <v>0.3498751065847099</v>
       </c>
       <c r="T6">
-        <v>0.0008134081612704557</v>
+        <v>0.3498751065847098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>54.838014</v>
       </c>
       <c r="I7">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J7">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.720566666666667</v>
+        <v>1.631411</v>
       </c>
       <c r="N7">
-        <v>5.1617</v>
+        <v>4.894233</v>
       </c>
       <c r="O7">
-        <v>0.3808042548680229</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="P7">
-        <v>0.3808042548680228</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="Q7">
-        <v>31.45081965153333</v>
+        <v>29.821113085918</v>
       </c>
       <c r="R7">
-        <v>283.0573768638</v>
+        <v>268.390017773262</v>
       </c>
       <c r="S7">
-        <v>0.3219574588192549</v>
+        <v>0.3621653507930498</v>
       </c>
       <c r="T7">
-        <v>0.3219574588192549</v>
+        <v>0.3621653507930497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>54.838014</v>
       </c>
       <c r="I8">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J8">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.631411</v>
+        <v>0.5138943333333333</v>
       </c>
       <c r="N8">
-        <v>4.894233</v>
+        <v>1.541683</v>
       </c>
       <c r="O8">
-        <v>0.3610718853702246</v>
+        <v>0.1291618870293125</v>
       </c>
       <c r="P8">
-        <v>0.3610718853702246</v>
+        <v>0.1291618870293125</v>
       </c>
       <c r="Q8">
-        <v>29.821113085918</v>
+        <v>9.393648215284667</v>
       </c>
       <c r="R8">
-        <v>268.390017773262</v>
+        <v>84.54283393756199</v>
       </c>
       <c r="S8">
-        <v>0.3052743901329675</v>
+        <v>0.1140820562704476</v>
       </c>
       <c r="T8">
-        <v>0.3052743901329675</v>
+        <v>0.1140820562704475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,134 +980,134 @@
         <v>54.838014</v>
       </c>
       <c r="I9">
-        <v>0.8454670731839307</v>
+        <v>0.883248602930037</v>
       </c>
       <c r="J9">
-        <v>0.8454670731839307</v>
+        <v>0.8832486029300368</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.406112</v>
+        <v>0.2573303333333333</v>
       </c>
       <c r="N9">
-        <v>1.218336</v>
+        <v>0.771991</v>
       </c>
       <c r="O9">
-        <v>0.0898827000133459</v>
+        <v>0.06467724839000366</v>
       </c>
       <c r="P9">
-        <v>0.08988270001334588</v>
+        <v>0.06467724839000366</v>
       </c>
       <c r="Q9">
-        <v>7.423458513855999</v>
+        <v>4.703828140652666</v>
       </c>
       <c r="R9">
-        <v>66.81112662470399</v>
+        <v>42.334453265874</v>
       </c>
       <c r="S9">
-        <v>0.0759928633101528</v>
+        <v>0.05712608928182972</v>
       </c>
       <c r="T9">
-        <v>0.07599286331015279</v>
+        <v>0.0571260892818297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>18.279338</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H10">
-        <v>54.838014</v>
+        <v>0.094925</v>
       </c>
       <c r="I10">
-        <v>0.8454670731839307</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J10">
-        <v>0.8454670731839307</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.445732</v>
+        <v>1.576048333333333</v>
       </c>
       <c r="N10">
-        <v>1.337196</v>
+        <v>4.728145</v>
       </c>
       <c r="O10">
-        <v>0.09865159276837104</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="P10">
-        <v>0.09865159276837102</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="Q10">
-        <v>8.147685885415999</v>
+        <v>0.04986879601388888</v>
       </c>
       <c r="R10">
-        <v>73.329172968744</v>
+        <v>0.4488191641249999</v>
       </c>
       <c r="S10">
-        <v>0.08340667340280769</v>
+        <v>0.0006056363473074278</v>
       </c>
       <c r="T10">
-        <v>0.08340667340280766</v>
+        <v>0.0006056363473074276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>18.279338</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H11">
-        <v>54.838014</v>
+        <v>0.094925</v>
       </c>
       <c r="I11">
-        <v>0.8454670731839307</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J11">
-        <v>0.8454670731839307</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3144226666666667</v>
+        <v>1.631411</v>
       </c>
       <c r="N11">
-        <v>0.943268</v>
+        <v>4.894233</v>
       </c>
       <c r="O11">
-        <v>0.0695895669800357</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="P11">
-        <v>0.06958956698003568</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="Q11">
-        <v>5.747438198861333</v>
+        <v>0.05162056305833333</v>
       </c>
       <c r="R11">
-        <v>51.726943789752</v>
+        <v>0.464585067525</v>
       </c>
       <c r="S11">
-        <v>0.05883568751874788</v>
+        <v>0.0006269108491790066</v>
       </c>
       <c r="T11">
-        <v>0.05883568751874788</v>
+        <v>0.0006269108491790065</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H12">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I12">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J12">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.720566666666667</v>
+        <v>0.5138943333333333</v>
       </c>
       <c r="N12">
-        <v>5.1617</v>
+        <v>1.541683</v>
       </c>
       <c r="O12">
-        <v>0.3808042548680229</v>
+        <v>0.1291618870293125</v>
       </c>
       <c r="P12">
-        <v>0.3808042548680228</v>
+        <v>0.1291618870293125</v>
       </c>
       <c r="Q12">
-        <v>5.313713212044445</v>
+        <v>0.01626047319722222</v>
       </c>
       <c r="R12">
-        <v>47.8234189084</v>
+        <v>0.146344258775</v>
       </c>
       <c r="S12">
-        <v>0.05439570801649118</v>
+        <v>0.0001974768668951475</v>
       </c>
       <c r="T12">
-        <v>0.05439570801649117</v>
+        <v>0.0001974768668951474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,75 +1207,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.088350666666667</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H13">
-        <v>9.265052000000001</v>
+        <v>0.094925</v>
       </c>
       <c r="I13">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="J13">
-        <v>0.1428442758218218</v>
+        <v>0.001528909738290919</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.631411</v>
+        <v>0.2573303333333333</v>
       </c>
       <c r="N13">
-        <v>4.894233</v>
+        <v>0.771991</v>
       </c>
       <c r="O13">
-        <v>0.3610718853702246</v>
+        <v>0.06467724839000366</v>
       </c>
       <c r="P13">
-        <v>0.3610718853702246</v>
+        <v>0.06467724839000366</v>
       </c>
       <c r="Q13">
-        <v>5.038369249457333</v>
+        <v>0.008142360630555555</v>
       </c>
       <c r="R13">
-        <v>45.345323245116</v>
+        <v>0.073281245675</v>
       </c>
       <c r="S13">
-        <v>0.05157705198532957</v>
+        <v>9.888567490933728E-05</v>
       </c>
       <c r="T13">
-        <v>0.05157705198532957</v>
+        <v>9.888567490933725E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.088350666666667</v>
+        <v>1.678369333333333</v>
       </c>
       <c r="H14">
-        <v>9.265052000000001</v>
+        <v>5.035108</v>
       </c>
       <c r="I14">
-        <v>0.1428442758218218</v>
+        <v>0.08109797897863065</v>
       </c>
       <c r="J14">
-        <v>0.1428442758218218</v>
+        <v>0.08109797897863062</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.406112</v>
+        <v>1.576048333333333</v>
       </c>
       <c r="N14">
-        <v>1.218336</v>
+        <v>4.728145</v>
       </c>
       <c r="O14">
-        <v>0.0898827000133459</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="P14">
-        <v>0.08988270001334588</v>
+        <v>0.3961230229224872</v>
       </c>
       <c r="Q14">
-        <v>1.254216265941333</v>
+        <v>2.645191190517778</v>
       </c>
       <c r="R14">
-        <v>11.287946393472</v>
+        <v>23.80672071466</v>
       </c>
       <c r="S14">
-        <v>0.01283922919231645</v>
+        <v>0.03212477658591949</v>
       </c>
       <c r="T14">
-        <v>0.01283922919231644</v>
+        <v>0.03212477658591949</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.088350666666667</v>
+        <v>1.678369333333333</v>
       </c>
       <c r="H15">
-        <v>9.265052000000001</v>
+        <v>5.035108</v>
       </c>
       <c r="I15">
-        <v>0.1428442758218218</v>
+        <v>0.08109797897863065</v>
       </c>
       <c r="J15">
-        <v>0.1428442758218218</v>
+        <v>0.08109797897863062</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,152 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.445732</v>
+        <v>1.631411</v>
       </c>
       <c r="N15">
-        <v>1.337196</v>
+        <v>4.894233</v>
       </c>
       <c r="O15">
-        <v>0.09865159276837104</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="P15">
-        <v>0.09865159276837102</v>
+        <v>0.4100378416581965</v>
       </c>
       <c r="Q15">
-        <v>1.376576719354667</v>
+        <v>2.738110192462667</v>
       </c>
       <c r="R15">
-        <v>12.389190474192</v>
+        <v>24.642991732164</v>
       </c>
       <c r="S15">
-        <v>0.01409181532766723</v>
+        <v>0.0332532402632395</v>
       </c>
       <c r="T15">
-        <v>0.01409181532766723</v>
+        <v>0.03325324026323949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.035108</v>
+      </c>
+      <c r="I16">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J16">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5138943333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.541683</v>
+      </c>
+      <c r="O16">
+        <v>0.1291618870293125</v>
+      </c>
+      <c r="P16">
+        <v>0.1291618870293125</v>
+      </c>
+      <c r="Q16">
+        <v>0.8625044896404445</v>
+      </c>
+      <c r="R16">
+        <v>7.762540406764</v>
+      </c>
+      <c r="S16">
+        <v>0.01047476799914345</v>
+      </c>
+      <c r="T16">
+        <v>0.01047476799914345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.088350666666667</v>
-      </c>
-      <c r="H16">
-        <v>9.265052000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.1428442758218218</v>
-      </c>
-      <c r="J16">
-        <v>0.1428442758218218</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.3144226666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.943268</v>
-      </c>
-      <c r="O16">
-        <v>0.0695895669800357</v>
-      </c>
-      <c r="P16">
-        <v>0.06958956698003568</v>
-      </c>
-      <c r="Q16">
-        <v>0.9710474522151112</v>
-      </c>
-      <c r="R16">
-        <v>8.739427069936001</v>
-      </c>
-      <c r="S16">
-        <v>0.009940471300017359</v>
-      </c>
-      <c r="T16">
-        <v>0.009940471300017358</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.678369333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.035108</v>
+      </c>
+      <c r="I17">
+        <v>0.08109797897863065</v>
+      </c>
+      <c r="J17">
+        <v>0.08109797897863062</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2573303333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.771991</v>
+      </c>
+      <c r="O17">
+        <v>0.06467724839000366</v>
+      </c>
+      <c r="P17">
+        <v>0.06467724839000366</v>
+      </c>
+      <c r="Q17">
+        <v>0.4318953400031111</v>
+      </c>
+      <c r="R17">
+        <v>3.887058060028</v>
+      </c>
+      <c r="S17">
+        <v>0.00524519413032819</v>
+      </c>
+      <c r="T17">
+        <v>0.005245194130328188</v>
       </c>
     </row>
   </sheetData>
